--- a/Model Parametrization.xlsx
+++ b/Model Parametrization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gareyes3\Documents\GitHub\CPS-Farm-to-Facility_L_T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA53B577-B45F-491D-8405-1CF47BCFB402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A41847-A9A5-443E-B9F0-C871C3456D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{A7FC8448-A2FF-4BB1-802F-01EED4E56C52}"/>
   </bookViews>
   <sheets>
     <sheet name="Flume Washing" sheetId="5" r:id="rId1"/>
@@ -4811,7 +4811,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6470,7 +6470,7 @@
   </sheetPr>
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
       <selection activeCell="AC39" sqref="AC39"/>
     </sheetView>
   </sheetViews>
@@ -10510,7 +10510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEC1AF1-5AD4-4EF3-8E46-E6A561BE2E61}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
